--- a/excelTemplate/MNRTemplate.xlsx
+++ b/excelTemplate/MNRTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>S/N</t>
   </si>
@@ -240,6 +240,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.mnr_ledger_actual_charge_amount_display%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.mnr_ledger_receipt_remark%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,11 +753,11 @@
     <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
     <col min="9" max="9" width="26.5" style="13" customWidth="1"/>
     <col min="10" max="10" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.375" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="13"/>
+    <col min="11" max="13" width="24.375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -784,10 +792,13 @@
         <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -822,11 +833,14 @@
         <v>42</v>
       </c>
       <c r="L2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/MNRTemplate.xlsx
+++ b/excelTemplate/MNRTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>S/N</t>
   </si>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.mnr_ledger_receipt_remark%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.mnr_ledger_description%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -735,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,17 +755,17 @@
     <col min="2" max="2" width="18.375" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="13" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="26.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="24.375" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="13"/>
+    <col min="5" max="6" width="17.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="24.375" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -773,32 +781,35 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -814,33 +825,36 @@
       <c r="E2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
